--- a/metrics/llama31_8b_LMDeploy_4090.xlsx
+++ b/metrics/llama31_8b_LMDeploy_4090.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,13 +456,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.5973545974004568</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.008749074935913079</v>
+        <v>0.1399636554718018</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>71.39681745798508</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.008747644424438469</v>
+        <v>0.08760383605957031</v>
       </c>
     </row>
     <row r="4">
@@ -481,10 +481,10 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>513.2799880960441</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.009748287200927727</v>
+        <v>2.442344694137573</v>
       </c>
     </row>
     <row r="5">
@@ -492,10 +492,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>590.9550475709578</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.009749479293823235</v>
+        <v>2.035979299545288</v>
       </c>
     </row>
     <row r="6">
@@ -503,10 +503,10 @@
         <v>25</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>840.9966010307999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07325356483459473</v>
+        <v>0.07410719871520996</v>
       </c>
     </row>
     <row r="7">
@@ -514,10 +514,10 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1156.394368368434</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.008743829727172844</v>
+        <v>0.07970359802246094</v>
       </c>
     </row>
     <row r="8">
@@ -525,10 +525,10 @@
         <v>35</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1382.105021992249</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.01074606895446777</v>
+        <v>5.514133958816529</v>
       </c>
     </row>
     <row r="9">
@@ -536,10 +536,10 @@
         <v>40</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1498.930706338517</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.009749956130981438</v>
+        <v>1.511781482696533</v>
       </c>
     </row>
     <row r="10">
@@ -547,10 +547,10 @@
         <v>45</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1610.10352048497</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.01174909591674804</v>
+        <v>0.1019563961029053</v>
       </c>
     </row>
     <row r="11">
@@ -558,10 +558,10 @@
         <v>50</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1693.850070603737</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.009748525619506829</v>
+        <v>0.07662704467773437</v>
       </c>
     </row>
     <row r="12">
@@ -569,10 +569,10 @@
         <v>55</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1783.067260155591</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06525152206420899</v>
+        <v>2.635839967727661</v>
       </c>
     </row>
     <row r="13">
@@ -580,10 +580,10 @@
         <v>60</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1818.873769637617</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.01174909591674804</v>
+        <v>2.019250183105469</v>
       </c>
     </row>
     <row r="14">
@@ -591,10 +591,10 @@
         <v>65</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1865.287751253628</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.009749717712402337</v>
+        <v>2.164606838226318</v>
       </c>
     </row>
     <row r="15">
@@ -602,10 +602,10 @@
         <v>70</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1903.249756854428</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.009753055572509758</v>
+        <v>10.21913292884827</v>
       </c>
     </row>
     <row r="16">
@@ -613,10 +613,10 @@
         <v>75</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1957.446016760406</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.010751314163208</v>
+        <v>0.03643110275268555</v>
       </c>
     </row>
     <row r="17">
@@ -624,10 +624,10 @@
         <v>80</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1998.551933545054</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.009747095108032219</v>
+        <v>10.26548007011414</v>
       </c>
     </row>
     <row r="18">
@@ -635,10 +635,10 @@
         <v>85</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>2025.801607994713</v>
       </c>
       <c r="C18" t="n">
-        <v>0.015249662399292</v>
+        <v>10.33368065834045</v>
       </c>
     </row>
     <row r="19">
@@ -646,10 +646,10 @@
         <v>90</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>2053.253275798717</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.0107510757446289</v>
+        <v>7.324297456741333</v>
       </c>
     </row>
     <row r="20">
@@ -657,10 +657,10 @@
         <v>95</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2075.704830732197</v>
       </c>
       <c r="C20" t="n">
-        <v>0.06425064086914063</v>
+        <v>7.14501955986023</v>
       </c>
     </row>
     <row r="21">
@@ -668,10 +668,10 @@
         <v>100</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>2109.244585972725</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.01074678421020507</v>
+        <v>3.882619886398315</v>
       </c>
     </row>
     <row r="22">
@@ -679,10 +679,10 @@
         <v>105</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>2131.727225308663</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.008748836517333977</v>
+        <v>10.39337375640869</v>
       </c>
     </row>
     <row r="23">
@@ -690,10 +690,10 @@
         <v>110</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>2143.632306843881</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.01174766540527343</v>
+        <v>2.046616821289062</v>
       </c>
     </row>
     <row r="24">
@@ -701,10 +701,10 @@
         <v>115</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>2167.804295803395</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.004747934341430657</v>
+        <v>5.366626052856446</v>
       </c>
     </row>
     <row r="25">
@@ -712,10 +712,10 @@
         <v>120</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>2210.353207604861</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.009747095108032219</v>
+        <v>0.1197407531738281</v>
       </c>
     </row>
     <row r="26">
@@ -723,10 +723,10 @@
         <v>125</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2197.384401870904</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.01274759292602538</v>
+        <v>1.122053413391113</v>
       </c>
     </row>
     <row r="27">
@@ -734,10 +734,10 @@
         <v>130</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>2215.808027786687</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.009749717712402337</v>
+        <v>10.53341725349426</v>
       </c>
     </row>
     <row r="28">
@@ -745,10 +745,10 @@
         <v>135</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>2235.708529063557</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.009750909805297844</v>
+        <v>0.9202726173400879</v>
       </c>
     </row>
     <row r="29">
@@ -756,10 +756,10 @@
         <v>140</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>2240.834778204015</v>
       </c>
       <c r="C29" t="n">
-        <v>0.06125228881835938</v>
+        <v>10.59324005126953</v>
       </c>
     </row>
     <row r="30">
@@ -767,10 +767,10 @@
         <v>145</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>2254.876432242982</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.009746856689453118</v>
+        <v>8.634758739471435</v>
       </c>
     </row>
     <row r="31">
@@ -778,10 +778,10 @@
         <v>150</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>2257.936151281376</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.01074797630310058</v>
+        <v>10.73630860328674</v>
       </c>
     </row>
     <row r="32">
@@ -789,10 +789,10 @@
         <v>155</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>2257.475925931605</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.008748836517333977</v>
+        <v>4.070960311889649</v>
       </c>
     </row>
     <row r="33">
@@ -800,10 +800,10 @@
         <v>160</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>2289.143623895966</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.009747810363769524</v>
+        <v>10.93796446800232</v>
       </c>
     </row>
     <row r="34">
@@ -811,10 +811,10 @@
         <v>165</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>2292.462557821412</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.01174814224243163</v>
+        <v>2.670526294708252</v>
       </c>
     </row>
     <row r="35">
@@ -822,10 +822,10 @@
         <v>170</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2281.876283041606</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.008747644424438469</v>
+        <v>10.9933002281189</v>
       </c>
     </row>
     <row r="36">
@@ -833,10 +833,10 @@
         <v>175</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>2304.76530824892</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.01074892997741698</v>
+        <v>0.08202937126159668</v>
       </c>
     </row>
     <row r="37">
@@ -844,10 +844,10 @@
         <v>180</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>2305.487748693545</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.009748287200927727</v>
+        <v>0.976303129196167</v>
       </c>
     </row>
     <row r="38">
@@ -855,10 +855,10 @@
         <v>185</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2321.109910692405</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.008751220703124993</v>
+        <v>0.0002329635620117176</v>
       </c>
     </row>
     <row r="39">
@@ -866,10 +866,10 @@
         <v>190</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>2326.000925366945</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.01074869155883788</v>
+        <v>11.16379645347595</v>
       </c>
     </row>
     <row r="40">
@@ -877,10 +877,10 @@
         <v>195</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>2324.571779005858</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.009748525619506829</v>
+        <v>8.259954957962035</v>
       </c>
     </row>
     <row r="41">
@@ -888,219 +888,230 @@
         <v>200</v>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2334.955091485121</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.01174909591674804</v>
+        <v>11.21457245826721</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>2343.955445625167</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.009749002456665032</v>
+        <v>1.457178621292114</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>2339.164641701276</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.009751148223876946</v>
+        <v>0.1871412086486816</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>2342.742191214847</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.01175028800964355</v>
+        <v>11.37798717498779</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>2351.334204608565</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.008747882843017571</v>
+        <v>11.42109635353088</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>2353.005649374546</v>
       </c>
       <c r="C46" t="n">
-        <v>0.06224935531616212</v>
+        <v>1.363408355712891</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>2365.174693434387</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.009747095108032219</v>
+        <v>11.68013790130615</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>2366.311962977513</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.008747882843017571</v>
+        <v>0.08419397354125976</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>2367.699245895737</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.01074797630310058</v>
+        <v>3.613325147628784</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>2372.624885547051</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.009751625061035149</v>
+        <v>4.742961196899414</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>2378.094053163295</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.007750577926635735</v>
+        <v>0.02685525894165039</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>2377.902487071136</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.01175076484680175</v>
+        <v>1.318597106933594</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>2380.648258007845</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.01274830818176269</v>
+        <v>2.640596656799316</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>2392.858186620105</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.007749385833740227</v>
+        <v>0.04151537895202637</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>2388.842980608063</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.01174933433532714</v>
+        <v>11.93533208847046</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>2389.517312083884</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.008751220703124993</v>
+        <v>11.98903515815735</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>2402.726162050622</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.006751604080200188</v>
+        <v>2.917577772140503</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>2398.860203615341</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.01074916839599609</v>
+        <v>0.8393714714050293</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>2396.225853669193</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.01074916839599609</v>
+        <v>12.23904421806335</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>2398.95122874663</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.008749790191650383</v>
+        <v>11.52220061302185</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>300</v>
+      </c>
+      <c r="B61" t="n">
+        <v>2400.534721716874</v>
+      </c>
+      <c r="C61" t="n">
+        <v>12.16661503791809</v>
       </c>
     </row>
   </sheetData>
@@ -1114,7 +1125,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1141,277 +1152,277 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>22.19398361221145</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.01131474494934082</v>
+        <v>1.643893079757691</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>51.7703366787885</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.01331555366516113</v>
+        <v>0.926409559249878</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>266.9194027343425</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.01331531524658203</v>
+        <v>1.43739016532898</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>462.705538244483</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.01350533485412597</v>
+        <v>1.310533123016357</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>695.7313832547953</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.01275264739990234</v>
+        <v>5.489228563308716</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>787.9298517692773</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.01265823364257812</v>
+        <v>0.02404625892639162</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>966.0902167127937</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.01231467247009277</v>
+        <v>0.6120258140563966</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1032.574262546383</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05934298515319825</v>
+        <v>0.08820946693420412</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1116.099793357544</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.01331626892089843</v>
+        <v>0.01169760704040529</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1171.035720182645</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.01131379127502441</v>
+        <v>0.02086432456970216</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1207.571475295406</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.01331769943237304</v>
+        <v>4.50807412147522</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1278.762816344156</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.01131855964660644</v>
+        <v>0.6868408489227296</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1278.745234182229</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.01331531524658203</v>
+        <v>0.6778305339813233</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1333.059299861828</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.01131546020507812</v>
+        <v>0.08495076179504396</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1340.469708321842</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.01331579208374023</v>
+        <v>11.09583480834961</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1368.028889456259</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.01131474494934082</v>
+        <v>3.560120897293091</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1384.959051027423</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.01131665229797363</v>
+        <v>4.691954212188721</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1406.449717423952</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.01131593704223632</v>
+        <v>10.9470380115509</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1429.802673331314</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.01314818382263183</v>
+        <v>0.0317955780029297</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1407.401702836766</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.01314818382263183</v>
+        <v>10.78279455184937</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1420.625713518322</v>
       </c>
       <c r="C22" t="n">
-        <v>0.05685127258300782</v>
+        <v>10.85317404747009</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1448.918823435768</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.01331698417663574</v>
+        <v>0.5836222934722901</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1449.384923432056</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.01231538772583007</v>
+        <v>-0.05345479965209959</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1459.884999441542</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.01331817626953125</v>
+        <v>10.79364307403564</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1470.273218566615</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.01331793785095214</v>
+        <v>10.68206174850464</v>
       </c>
     </row>
     <row r="27">
@@ -1419,10 +1430,10 @@
         <v>130</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1462.86816382203</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.01131641387939453</v>
+        <v>1.801840620040894</v>
       </c>
     </row>
     <row r="28">
@@ -1430,10 +1441,10 @@
         <v>135</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1471.216361209046</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.01331531524658203</v>
+        <v>10.6938858795166</v>
       </c>
     </row>
     <row r="29">
@@ -1441,10 +1452,10 @@
         <v>140</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1479.060774420934</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.01331769943237304</v>
+        <v>10.66157873153687</v>
       </c>
     </row>
     <row r="30">
@@ -1452,10 +1463,10 @@
         <v>145</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1485.314421163301</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.01131784439086914</v>
+        <v>10.56113608360291</v>
       </c>
     </row>
     <row r="31">
@@ -1463,10 +1474,10 @@
         <v>150</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1494.557341040852</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.01328265190124511</v>
+        <v>0.3790520000457764</v>
       </c>
     </row>
     <row r="32">
@@ -1474,10 +1485,10 @@
         <v>155</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1487.761646567774</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.0132814598083496</v>
+        <v>10.61688073158264</v>
       </c>
     </row>
     <row r="33">
@@ -1485,10 +1496,10 @@
         <v>160</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1503.868311361911</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.01228248596191406</v>
+        <v>10.55085475921631</v>
       </c>
     </row>
     <row r="34">
@@ -1496,10 +1507,10 @@
         <v>165</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1498.55478305894</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.01231610298156738</v>
+        <v>9.248505668640137</v>
       </c>
     </row>
     <row r="35">
@@ -1507,10 +1518,10 @@
         <v>170</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1505.713083221697</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.01231491088867187</v>
+        <v>10.6137336063385</v>
       </c>
     </row>
     <row r="36">
@@ -1518,10 +1529,10 @@
         <v>175</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>1508.977727693848</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.01131641387939453</v>
+        <v>10.61683137893677</v>
       </c>
     </row>
     <row r="37">
@@ -1529,10 +1540,10 @@
         <v>180</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1512.690003467734</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.01331603050231933</v>
+        <v>10.60913022041321</v>
       </c>
     </row>
     <row r="38">
@@ -1540,10 +1551,10 @@
         <v>185</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1520.635802076424</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.01131784439086914</v>
+        <v>3.100825147628784</v>
       </c>
     </row>
     <row r="39">
@@ -1551,10 +1562,10 @@
         <v>190</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>1514.450041991234</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.01131546020507812</v>
+        <v>0.6539278793334962</v>
       </c>
     </row>
     <row r="40">
@@ -1562,10 +1573,10 @@
         <v>195</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1514.321387836892</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.01231634140014648</v>
+        <v>1.617407159805298</v>
       </c>
     </row>
     <row r="41">
@@ -1573,10 +1584,10 @@
         <v>200</v>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1524.74731241687</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.01331650733947753</v>
+        <v>10.55442436218262</v>
       </c>
     </row>
     <row r="42">
@@ -1584,10 +1595,10 @@
         <v>205</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>1520.25084119627</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.01131450653076171</v>
+        <v>10.58434899330139</v>
       </c>
     </row>
     <row r="43">
@@ -1595,10 +1606,10 @@
         <v>210</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1527.62455325494</v>
       </c>
       <c r="C43" t="n">
-        <v>0.05468833923339844</v>
+        <v>2.031578378677368</v>
       </c>
     </row>
     <row r="44">
@@ -1606,10 +1617,10 @@
         <v>215</v>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1533.321812146245</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.01231491088867187</v>
+        <v>1.180716829299927</v>
       </c>
     </row>
     <row r="45">
@@ -1617,10 +1628,10 @@
         <v>220</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>1541.232318654686</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.01331817626953125</v>
+        <v>1.580945568084717</v>
       </c>
     </row>
     <row r="46">
@@ -1628,10 +1639,10 @@
         <v>225</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1538.686949467679</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.01231777191162109</v>
+        <v>9.677370386123657</v>
       </c>
     </row>
     <row r="47">
@@ -1639,10 +1650,10 @@
         <v>230</v>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>1541.429635316161</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.01331603050231933</v>
+        <v>5.672774391174316</v>
       </c>
     </row>
     <row r="48">
@@ -1650,10 +1661,10 @@
         <v>235</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>1541.849724460614</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.01331436157226562</v>
+        <v>10.61818202018738</v>
       </c>
     </row>
     <row r="49">
@@ -1661,10 +1672,10 @@
         <v>240</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>1546.743196766552</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.01331412315368652</v>
+        <v>2.300555305480957</v>
       </c>
     </row>
     <row r="50">
@@ -1672,10 +1683,10 @@
         <v>245</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>1550.871453679183</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.01131593704223632</v>
+        <v>1.51315863609314</v>
       </c>
     </row>
     <row r="51">
@@ -1683,10 +1694,10 @@
         <v>250</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>1551.419933849565</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.01231562614440918</v>
+        <v>3.980486707687378</v>
       </c>
     </row>
     <row r="52">
@@ -1694,10 +1705,10 @@
         <v>255</v>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>1547.802242411962</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.01331746101379394</v>
+        <v>10.79711301803589</v>
       </c>
     </row>
     <row r="53">
@@ -1705,10 +1716,10 @@
         <v>260</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>1550.725402112304</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.01431309700012207</v>
+        <v>2.505753116607666</v>
       </c>
     </row>
     <row r="54">
@@ -1716,10 +1727,10 @@
         <v>265</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>1552.440915524375</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.01131546020507812</v>
+        <v>3.876082735061646</v>
       </c>
     </row>
     <row r="55">
@@ -1727,10 +1738,10 @@
         <v>270</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>1555.350428160782</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.01231657981872558</v>
+        <v>1.79584963798523</v>
       </c>
     </row>
     <row r="56">
@@ -1738,10 +1749,10 @@
         <v>275</v>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>1562.730688718822</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.01331650733947753</v>
+        <v>1.520993785858154</v>
       </c>
     </row>
     <row r="57">
@@ -1749,10 +1760,10 @@
         <v>280</v>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>1558.581606005562</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.01331626892089843</v>
+        <v>10.81370957374573</v>
       </c>
     </row>
     <row r="58">
@@ -1760,10 +1771,10 @@
         <v>285</v>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>1557.820682051466</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.01131617546081543</v>
+        <v>0.5577743816375733</v>
       </c>
     </row>
     <row r="59">
@@ -1771,10 +1782,10 @@
         <v>290</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>1563.086526526021</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.01231729507446289</v>
+        <v>10.90696747779846</v>
       </c>
     </row>
     <row r="60">
@@ -1782,10 +1793,21 @@
         <v>295</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>1562.081376219831</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.01131736755371093</v>
+        <v>10.87356598854065</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>300</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1561.323317698459</v>
+      </c>
+      <c r="C61" t="n">
+        <v>10.8724211025238</v>
       </c>
     </row>
   </sheetData>
@@ -1826,35 +1848,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.01486532211303711</v>
+        <v>0.03622229576110841</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>9.507327864055375</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.01774422645568847</v>
+        <v>1.286429719924927</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>94.32191392342237</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.01774303436279297</v>
+        <v>0.00891001701354982</v>
       </c>
     </row>
     <row r="5">
@@ -1862,10 +1884,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>151.4520508817754</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.01681439399719238</v>
+        <v>1.200433568954468</v>
       </c>
     </row>
     <row r="6">
@@ -1873,10 +1895,10 @@
         <v>25</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>184.7893910661431</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.01055614471435547</v>
+        <v>9.783226566314697</v>
       </c>
     </row>
     <row r="7">
@@ -1884,10 +1906,10 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>231.2755852431097</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.01770894050598144</v>
+        <v>9.076298789978027</v>
       </c>
     </row>
     <row r="8">
@@ -1895,10 +1917,10 @@
         <v>35</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>239.7671987461938</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.01584522247314453</v>
+        <v>9.360884742736816</v>
       </c>
     </row>
     <row r="9">
@@ -1906,10 +1928,10 @@
         <v>40</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>272.6255525338368</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.01775948524475097</v>
+        <v>2.265939073562622</v>
       </c>
     </row>
     <row r="10">
@@ -1917,10 +1939,10 @@
         <v>45</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>285.6525162195427</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0175947380065918</v>
+        <v>0.7252803611755372</v>
       </c>
     </row>
     <row r="11">
@@ -1928,10 +1950,10 @@
         <v>50</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>286.1595224692393</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.01788298606872558</v>
+        <v>9.174568967819214</v>
       </c>
     </row>
     <row r="12">
@@ -1939,10 +1961,10 @@
         <v>55</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>304.4656432358274</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.01814190864562988</v>
+        <v>9.169383125305176</v>
       </c>
     </row>
     <row r="13">
@@ -1950,10 +1972,10 @@
         <v>60</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>316.9832913378328</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.0181452465057373</v>
+        <v>8.684712963104248</v>
       </c>
     </row>
     <row r="14">
@@ -1961,10 +1983,10 @@
         <v>65</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>321.4952494245493</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.01609246253967285</v>
+        <v>9.275754766464233</v>
       </c>
     </row>
     <row r="15">
@@ -1972,10 +1994,10 @@
         <v>70</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>326.3460842807174</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.01812760353088379</v>
+        <v>7.235088424682617</v>
       </c>
     </row>
     <row r="16">
@@ -1983,10 +2005,10 @@
         <v>75</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>334.6784676734335</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.01714269638061523</v>
+        <v>9.351067380905151</v>
       </c>
     </row>
     <row r="17">
@@ -1994,10 +2016,10 @@
         <v>80</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>327.4603011277136</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.01714150428771972</v>
+        <v>9.332254486083984</v>
       </c>
     </row>
     <row r="18">
@@ -2005,10 +2027,10 @@
         <v>85</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>340.2159026629573</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.01714365005493164</v>
+        <v>9.41896017074585</v>
       </c>
     </row>
     <row r="19">
@@ -2016,10 +2038,10 @@
         <v>90</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>340.0809118427521</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.01714198112487793</v>
+        <v>2.932796316146851</v>
       </c>
     </row>
     <row r="20">
@@ -2027,10 +2049,10 @@
         <v>95</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>345.7364876740975</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.01714055061340332</v>
+        <v>9.445387201309204</v>
       </c>
     </row>
     <row r="21">
@@ -2038,10 +2060,10 @@
         <v>100</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>346.4038996421492</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.01714150428771972</v>
+        <v>1.690169410705566</v>
       </c>
     </row>
     <row r="22">
@@ -2049,10 +2071,10 @@
         <v>105</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>350.1891441905446</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.01714245796203613</v>
+        <v>9.460794763565064</v>
       </c>
     </row>
     <row r="23">
@@ -2060,10 +2082,10 @@
         <v>110</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>355.8152336436529</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.01737396240234375</v>
+        <v>9.623780565261841</v>
       </c>
     </row>
     <row r="24">
@@ -2071,10 +2093,10 @@
         <v>115</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>351.7316922764503</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.01548211097717285</v>
+        <v>9.527249412536621</v>
       </c>
     </row>
     <row r="25">
@@ -2082,10 +2104,10 @@
         <v>120</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>360.360951579655</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.01714198112487793</v>
+        <v>9.534856395721436</v>
       </c>
     </row>
     <row r="26">
@@ -2093,10 +2115,10 @@
         <v>125</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>359.9166874129487</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.01714078903198242</v>
+        <v>9.534792499542236</v>
       </c>
     </row>
     <row r="27">
@@ -2104,10 +2126,10 @@
         <v>130</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>360.7029223971981</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.01814047813415527</v>
+        <v>9.536881761550903</v>
       </c>
     </row>
     <row r="28">
@@ -2115,10 +2137,10 @@
         <v>135</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>360.6852569240533</v>
       </c>
       <c r="C28" t="n">
-        <v>0.04785950660705567</v>
+        <v>4.019338207244873</v>
       </c>
     </row>
     <row r="29">
@@ -2126,10 +2148,10 @@
         <v>140</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>361.186261307647</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.01814190864562988</v>
+        <v>0.7903393077850343</v>
       </c>
     </row>
     <row r="30">
@@ -2137,10 +2159,10 @@
         <v>145</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>361.9106847334125</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.01914207458496094</v>
+        <v>9.535618619918823</v>
       </c>
     </row>
     <row r="31">
@@ -2148,10 +2170,10 @@
         <v>150</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>365.9881052451758</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.01814190864562988</v>
+        <v>9.549502449035645</v>
       </c>
     </row>
     <row r="32">
@@ -2159,10 +2181,10 @@
         <v>155</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>364.6437756781418</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.0201436710357666</v>
+        <v>7.258218364715576</v>
       </c>
     </row>
     <row r="33">
@@ -2170,10 +2192,10 @@
         <v>160</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>368.3306889805476</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.01814095497131347</v>
+        <v>2.246770935058594</v>
       </c>
     </row>
     <row r="34">
@@ -2181,10 +2203,10 @@
         <v>165</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>365.7653568667304</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.01914135932922363</v>
+        <v>9.538516120910645</v>
       </c>
     </row>
     <row r="35">
@@ -2192,10 +2214,10 @@
         <v>170</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>372.6260765112415</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.01814190864562988</v>
+        <v>9.537801580429077</v>
       </c>
     </row>
     <row r="36">
@@ -2203,10 +2225,10 @@
         <v>175</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>369.2675922563562</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.02014152526855469</v>
+        <v>6.268614845275879</v>
       </c>
     </row>
     <row r="37">
@@ -2214,10 +2236,10 @@
         <v>180</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>376.2879086549572</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.01814143180847168</v>
+        <v>9.022902326583862</v>
       </c>
     </row>
     <row r="38">
@@ -2225,10 +2247,10 @@
         <v>185</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>374.2763694282232</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.01914135932922363</v>
+        <v>9.451983766555786</v>
       </c>
     </row>
     <row r="39">
@@ -2236,10 +2258,10 @@
         <v>190</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>376.5149505961601</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.01814047813415527</v>
+        <v>9.452015476226807</v>
       </c>
     </row>
     <row r="40">
@@ -2247,10 +2269,10 @@
         <v>195</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>374.5626518862492</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.02014128684997558</v>
+        <v>1.757356719970703</v>
       </c>
     </row>
     <row r="41">
@@ -2258,10 +2280,10 @@
         <v>200</v>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>377.103920587952</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.01814143180847168</v>
+        <v>4.326869564056397</v>
       </c>
     </row>
     <row r="42">
@@ -2269,10 +2291,10 @@
         <v>205</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>373.9273615351712</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.01914350509643555</v>
+        <v>8.859393911361694</v>
       </c>
     </row>
     <row r="43">
@@ -2280,10 +2302,10 @@
         <v>210</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>379.972647254867</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.01714293479919433</v>
+        <v>6.872454719543457</v>
       </c>
     </row>
     <row r="44">
@@ -2291,10 +2313,10 @@
         <v>215</v>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>375.9729282179193</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.01914159774780273</v>
+        <v>9.468731479644775</v>
       </c>
     </row>
     <row r="45">
@@ -2302,10 +2324,10 @@
         <v>220</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>380.4643517416195</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.01714055061340332</v>
+        <v>6.464654998779297</v>
       </c>
     </row>
     <row r="46">
@@ -2313,10 +2335,10 @@
         <v>225</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>378.4679835777338</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.01914112091064453</v>
+        <v>2.612345056533814</v>
       </c>
     </row>
     <row r="47">
@@ -2324,10 +2346,10 @@
         <v>230</v>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>377.3889060854571</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.01714007377624512</v>
+        <v>6.634046154022217</v>
       </c>
     </row>
     <row r="48">
@@ -2335,10 +2357,10 @@
         <v>235</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>379.381344045132</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.01914016723632812</v>
+        <v>9.430083351135254</v>
       </c>
     </row>
     <row r="49">
@@ -2346,10 +2368,10 @@
         <v>240</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>376.9097318874182</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.01714317321777344</v>
+        <v>9.446351842880249</v>
       </c>
     </row>
     <row r="50">
@@ -2357,10 +2379,10 @@
         <v>245</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>380.3973039062569</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.01913969039916992</v>
+        <v>9.470472412109375</v>
       </c>
     </row>
     <row r="51">
@@ -2368,10 +2390,10 @@
         <v>250</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>378.6487377699553</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.01714174270629883</v>
+        <v>9.475161628723145</v>
       </c>
     </row>
     <row r="52">
@@ -2379,10 +2401,10 @@
         <v>255</v>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>380.3559666346566</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.01914207458496094</v>
+        <v>7.318519668579102</v>
       </c>
     </row>
     <row r="53">
@@ -2390,10 +2412,10 @@
         <v>260</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>378.6757213158186</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.01714078903198242</v>
+        <v>2.008762435913086</v>
       </c>
     </row>
     <row r="54">
@@ -2401,10 +2423,10 @@
         <v>265</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>381.1049291838305</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.01914302825927734</v>
+        <v>9.447706775665283</v>
       </c>
     </row>
     <row r="55">
@@ -2412,10 +2434,10 @@
         <v>270</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>380.1693239530194</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.01714031219482422</v>
+        <v>9.432391242980957</v>
       </c>
     </row>
     <row r="56">
@@ -2423,10 +2445,10 @@
         <v>275</v>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>381.5918379687578</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.01914374351501465</v>
+        <v>9.442292766571045</v>
       </c>
     </row>
     <row r="57">
@@ -2434,10 +2456,10 @@
         <v>280</v>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>380.7941279998121</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.01714317321777344</v>
+        <v>9.447711067199707</v>
       </c>
     </row>
     <row r="58">
@@ -2445,10 +2467,10 @@
         <v>285</v>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>381.7404340553038</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.01914255142211914</v>
+        <v>1.624687032699585</v>
       </c>
     </row>
     <row r="59">
@@ -2456,10 +2478,10 @@
         <v>290</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>380.0023486111454</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.01714126586914062</v>
+        <v>9.429216938018799</v>
       </c>
     </row>
     <row r="60">
@@ -2467,10 +2489,10 @@
         <v>295</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>383.1726775308568</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.01914541244506836</v>
+        <v>4.203156070709229</v>
       </c>
     </row>
     <row r="61">
@@ -2478,10 +2500,10 @@
         <v>300</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>382.4685887860322</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.01714102745056152</v>
+        <v>9.487963037490845</v>
       </c>
     </row>
   </sheetData>
@@ -2522,57 +2544,57 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.01664821624755859</v>
+        <v>9.002494506835937</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>40.12329773579231</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.01579801559448242</v>
+        <v>4.950717144012451</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>68.57563734425578</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.01679675102233887</v>
+        <v>9.010066919326782</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>83.74654828073712</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.01679579734802246</v>
+        <v>6.130963497161865</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>111.5712801639955</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0157953929901123</v>
+        <v>9.002555780410766</v>
       </c>
     </row>
     <row r="7">
@@ -2580,10 +2602,10 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>131.6248753731811</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.01679508209228515</v>
+        <v>0.5077885913848876</v>
       </c>
     </row>
     <row r="8">
@@ -2591,10 +2613,10 @@
         <v>35</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>150.850669576494</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.01679651260375976</v>
+        <v>9.062785558700561</v>
       </c>
     </row>
     <row r="9">
@@ -2602,10 +2624,10 @@
         <v>40</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>151.4590339233326</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.01610700607299805</v>
+        <v>9.054276161193847</v>
       </c>
     </row>
     <row r="10">
@@ -2613,10 +2635,10 @@
         <v>45</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>169.8655576123059</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.01711217880249023</v>
+        <v>4.822287015914917</v>
       </c>
     </row>
     <row r="11">
@@ -2624,10 +2646,10 @@
         <v>50</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>152.8804930488978</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.01679675102233887</v>
+        <v>9.184733800888061</v>
       </c>
     </row>
     <row r="12">
@@ -2635,10 +2657,10 @@
         <v>55</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>169.7024310146033</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.01679460525512695</v>
+        <v>9.088172369003296</v>
       </c>
     </row>
     <row r="13">
@@ -2646,10 +2668,10 @@
         <v>60</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>164.3558921441792</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.01679579734802246</v>
+        <v>6.250480585098266</v>
       </c>
     </row>
     <row r="14">
@@ -2657,10 +2679,10 @@
         <v>65</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>173.3769632607872</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.01679293632507324</v>
+        <v>0.01417105674743652</v>
       </c>
     </row>
     <row r="15">
@@ -2668,10 +2690,10 @@
         <v>70</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>177.4238107956505</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.01679436683654785</v>
+        <v>9.190145425796509</v>
       </c>
     </row>
     <row r="16">
@@ -2679,10 +2701,10 @@
         <v>75</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>176.3999760190292</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.01579658508300781</v>
+        <v>9.215309314727783</v>
       </c>
     </row>
     <row r="17">
@@ -2690,10 +2712,10 @@
         <v>80</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>183.5232075554457</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.0157951545715332</v>
+        <v>0.8651711273193359</v>
       </c>
     </row>
     <row r="18">
@@ -2701,10 +2723,10 @@
         <v>85</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>177.9467282377029</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.01579658508300781</v>
+        <v>9.247625045776367</v>
       </c>
     </row>
     <row r="19">
@@ -2712,10 +2734,10 @@
         <v>90</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.6147697971347</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.01579610824584961</v>
+        <v>9.281594686508178</v>
       </c>
     </row>
     <row r="20">
@@ -2723,10 +2745,10 @@
         <v>95</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>182.5111656175522</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.01679865837097168</v>
+        <v>9.191069536209106</v>
       </c>
     </row>
     <row r="21">
@@ -2734,10 +2756,10 @@
         <v>100</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>184.4819603680678</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.01679770469665527</v>
+        <v>2.475387268066406</v>
       </c>
     </row>
     <row r="22">
@@ -2745,10 +2767,10 @@
         <v>105</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.2491568564598</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.01679794311523437</v>
+        <v>9.172966175079345</v>
       </c>
     </row>
     <row r="23">
@@ -2756,10 +2778,10 @@
         <v>110</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>183.7243045167878</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.01679722785949707</v>
+        <v>9.153909378051758</v>
       </c>
     </row>
     <row r="24">
@@ -2767,10 +2789,10 @@
         <v>115</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>189.5541123339329</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.01679436683654785</v>
+        <v>5.176389627456665</v>
       </c>
     </row>
     <row r="25">
@@ -2778,10 +2800,10 @@
         <v>120</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>186.9307168628668</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.01603619575500488</v>
+        <v>0.6758977699279785</v>
       </c>
     </row>
     <row r="26">
@@ -2789,10 +2811,10 @@
         <v>125</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>190.4834789259109</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.01679532051086426</v>
+        <v>9.11558669090271</v>
       </c>
     </row>
     <row r="27">
@@ -2800,10 +2822,10 @@
         <v>130</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>191.6066019259288</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.01679317474365234</v>
+        <v>0.3789152431488037</v>
       </c>
     </row>
     <row r="28">
@@ -2811,10 +2833,10 @@
         <v>135</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>190.7711383501499</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.01679627418518066</v>
+        <v>9.051487617492675</v>
       </c>
     </row>
     <row r="29">
@@ -2822,10 +2844,10 @@
         <v>140</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>192.7317701595299</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.01679460525512695</v>
+        <v>9.041339330673217</v>
       </c>
     </row>
     <row r="30">
@@ -2833,10 +2855,10 @@
         <v>145</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>192.7982127851786</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.01779477119445801</v>
+        <v>0.3413533496856689</v>
       </c>
     </row>
     <row r="31">
@@ -2844,10 +2866,10 @@
         <v>150</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>192.7671772546022</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.01679722785949707</v>
+        <v>0.6416322517395019</v>
       </c>
     </row>
     <row r="32">
@@ -2855,10 +2877,10 @@
         <v>155</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>193.7269961392883</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.01679436683654785</v>
+        <v>9.074813537597656</v>
       </c>
     </row>
     <row r="33">
@@ -2866,10 +2888,10 @@
         <v>160</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>195.1214894272611</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.01679651260375976</v>
+        <v>9.107318572998047</v>
       </c>
     </row>
     <row r="34">
@@ -2877,10 +2899,10 @@
         <v>165</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>191.8329836922288</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.01679651260375976</v>
+        <v>-0.02187926292419434</v>
       </c>
     </row>
     <row r="35">
@@ -2888,10 +2910,10 @@
         <v>170</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>196.4988119150547</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.01679484367370605</v>
+        <v>9.127309970855713</v>
       </c>
     </row>
     <row r="36">
@@ -2899,10 +2921,10 @@
         <v>175</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>193.173852696379</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.01579610824584961</v>
+        <v>3.800156764984131</v>
       </c>
     </row>
     <row r="37">
@@ -2910,10 +2932,10 @@
         <v>180</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>195.0971869570058</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.01695076942443847</v>
+        <v>7.714223556518554</v>
       </c>
     </row>
     <row r="38">
@@ -2921,10 +2943,10 @@
         <v>185</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>195.6821846499475</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.01714579582214355</v>
+        <v>9.087942771911621</v>
       </c>
     </row>
     <row r="39">
@@ -2932,10 +2954,10 @@
         <v>190</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>195.939288421413</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.01722304344177246</v>
+        <v>9.133505277633667</v>
       </c>
     </row>
     <row r="40">
@@ -2943,10 +2965,10 @@
         <v>195</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>195.4869997567022</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.01679698944091797</v>
+        <v>9.104945592880249</v>
       </c>
     </row>
     <row r="41">
@@ -2954,10 +2976,10 @@
         <v>200</v>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>196.5904943798489</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.01679603576660156</v>
+        <v>3.242321424484253</v>
       </c>
     </row>
     <row r="42">
@@ -2965,10 +2987,10 @@
         <v>205</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>195.5069130614238</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.01679532051086426</v>
+        <v>9.098930768966675</v>
       </c>
     </row>
     <row r="43">
@@ -2976,10 +2998,10 @@
         <v>210</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>196.914897627585</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.01668946266174316</v>
+        <v>9.092675857543945</v>
       </c>
     </row>
     <row r="44">
@@ -2987,10 +3009,10 @@
         <v>215</v>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>195.5603005598001</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.01679722785949707</v>
+        <v>6.868645601272583</v>
       </c>
     </row>
     <row r="45">
@@ -2998,10 +3020,10 @@
         <v>220</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>196.8109136760565</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.01679579734802246</v>
+        <v>9.05480092048645</v>
       </c>
     </row>
     <row r="46">
@@ -3009,10 +3031,10 @@
         <v>225</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>200.2207548762962</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.01679675102233887</v>
+        <v>9.061509304046631</v>
       </c>
     </row>
     <row r="47">
@@ -3020,10 +3042,10 @@
         <v>230</v>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>195.8639967729893</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.01679579734802246</v>
+        <v>9.042084865570068</v>
       </c>
     </row>
     <row r="48">
@@ -3031,10 +3053,10 @@
         <v>235</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>200.485249563184</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.01679722785949707</v>
+        <v>9.143004827499389</v>
       </c>
     </row>
     <row r="49">
@@ -3042,10 +3064,10 @@
         <v>240</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>198.0450636482398</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.01679388999938965</v>
+        <v>3.509521484368339e-06</v>
       </c>
     </row>
     <row r="50">
@@ -3053,10 +3075,10 @@
         <v>245</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>198.6651684300771</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.01679532051086426</v>
+        <v>-0.005813188552856452</v>
       </c>
     </row>
     <row r="51">
@@ -3064,10 +3086,10 @@
         <v>250</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>196.6063763248696</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.01679579734802246</v>
+        <v>8.678406648635864</v>
       </c>
     </row>
     <row r="52">
@@ -3075,10 +3097,10 @@
         <v>255</v>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>199.1294889346937</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.01679627418518066</v>
+        <v>5.168810777664184</v>
       </c>
     </row>
     <row r="53">
@@ -3086,10 +3108,10 @@
         <v>260</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>196.3724816151663</v>
       </c>
       <c r="C53" t="n">
-        <v>0.05020506858825684</v>
+        <v>9.380482368469238</v>
       </c>
     </row>
     <row r="54">
@@ -3097,10 +3119,10 @@
         <v>265</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>198.3747888839996</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.01679698944091797</v>
+        <v>9.531410150527954</v>
       </c>
     </row>
     <row r="55">
@@ -3108,10 +3130,10 @@
         <v>270</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>199.6526078154783</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.0177933406829834</v>
+        <v>9.393471412658691</v>
       </c>
     </row>
     <row r="56">
@@ -3119,10 +3141,10 @@
         <v>275</v>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>200.498924655897</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.01779524803161621</v>
+        <v>9.279152088165283</v>
       </c>
     </row>
     <row r="57">
@@ -3130,10 +3152,10 @@
         <v>280</v>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>198.8834325722482</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.01679746627807617</v>
+        <v>9.400977306365967</v>
       </c>
     </row>
     <row r="58">
@@ -3141,10 +3163,10 @@
         <v>285</v>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>198.87354197493</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.01679293632507324</v>
+        <v>9.394129447937011</v>
       </c>
     </row>
     <row r="59">
@@ -3152,10 +3174,10 @@
         <v>290</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>199.0304103641269</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.01279870986938476</v>
+        <v>4.953991346359253</v>
       </c>
     </row>
     <row r="60">
@@ -3163,10 +3185,10 @@
         <v>295</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>199.4403696433756</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.01279513359069824</v>
+        <v>1.987157754898071</v>
       </c>
     </row>
     <row r="61">
@@ -3174,10 +3196,10 @@
         <v>300</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>199.0688264158188</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.00879566192626953</v>
+        <v>6.43848388671875</v>
       </c>
     </row>
   </sheetData>
@@ -3191,7 +3213,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3218,13 +3240,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07105172157287598</v>
+        <v>5.384265546798706</v>
       </c>
     </row>
     <row r="3">
@@ -3232,10 +3254,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>26.94474671553953</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07016861915588379</v>
+        <v>-0.0281888198852539</v>
       </c>
     </row>
     <row r="4">
@@ -3243,10 +3265,10 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>41.82896861205247</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07105744361877442</v>
+        <v>8.825776700973512</v>
       </c>
     </row>
     <row r="5">
@@ -3254,10 +3276,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>31.34536719696055</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0702151107788086</v>
+        <v>8.826478843688966</v>
       </c>
     </row>
     <row r="6">
@@ -3265,10 +3287,10 @@
         <v>25</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>40.63000824532531</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07015884399414063</v>
+        <v>8.829298143386842</v>
       </c>
     </row>
     <row r="7">
@@ -3276,10 +3298,10 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>33.85589097255553</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07094133377075196</v>
+        <v>-0.0329033088684082</v>
       </c>
     </row>
     <row r="8">
@@ -3287,10 +3309,10 @@
         <v>35</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>39.22057433134665</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07117975234985352</v>
+        <v>9.05841935157776</v>
       </c>
     </row>
     <row r="9">
@@ -3298,10 +3320,10 @@
         <v>40</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>34.32213596811832</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06935394287109375</v>
+        <v>8.827487354278565</v>
       </c>
     </row>
     <row r="10">
@@ -3309,10 +3331,10 @@
         <v>45</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>39.84591448633548</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07119071960449219</v>
+        <v>6.405829315185547</v>
       </c>
     </row>
     <row r="11">
@@ -3320,10 +3342,10 @@
         <v>50</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>35.86670997163027</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07127964973449707</v>
+        <v>8.873647098541261</v>
       </c>
     </row>
     <row r="12">
@@ -3331,10 +3353,10 @@
         <v>55</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>38.63649284529463</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07200730323791504</v>
+        <v>8.834894781112672</v>
       </c>
     </row>
     <row r="13">
@@ -3342,10 +3364,10 @@
         <v>60</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>39.81085539512979</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07211554527282715</v>
+        <v>1.932052497863769</v>
       </c>
     </row>
     <row r="14">
@@ -3353,10 +3375,10 @@
         <v>65</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>36.73931462914755</v>
       </c>
       <c r="C14" t="n">
-        <v>0.07145393371582032</v>
+        <v>8.823260669708253</v>
       </c>
     </row>
     <row r="15">
@@ -3364,10 +3386,10 @@
         <v>70</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>40.30544255357575</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07012999534606934</v>
+        <v>8.824373130798341</v>
       </c>
     </row>
     <row r="16">
@@ -3375,10 +3397,10 @@
         <v>75</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>37.61689931605887</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0712374496459961</v>
+        <v>8.825047855377198</v>
       </c>
     </row>
     <row r="17">
@@ -3386,10 +3408,10 @@
         <v>80</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>42.29548671971768</v>
       </c>
       <c r="C17" t="n">
-        <v>0.069741849899292</v>
+        <v>8.828728322982789</v>
       </c>
     </row>
     <row r="18">
@@ -3397,10 +3419,10 @@
         <v>85</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>39.80183103406277</v>
       </c>
       <c r="C18" t="n">
-        <v>0.06900632858276368</v>
+        <v>8.828245286941529</v>
       </c>
     </row>
     <row r="19">
@@ -3408,10 +3430,10 @@
         <v>90</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>42.35865619857047</v>
       </c>
       <c r="C19" t="n">
-        <v>0.07024372100830079</v>
+        <v>3.487934236526489</v>
       </c>
     </row>
     <row r="20">
@@ -3419,10 +3441,10 @@
         <v>95</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>40.13552332170049</v>
       </c>
       <c r="C20" t="n">
-        <v>0.07069242477416993</v>
+        <v>8.830814962387086</v>
       </c>
     </row>
     <row r="21">
@@ -3430,10 +3452,10 @@
         <v>100</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>42.24494606006504</v>
       </c>
       <c r="C21" t="n">
-        <v>0.07007515907287598</v>
+        <v>8.825330619812013</v>
       </c>
     </row>
     <row r="22">
@@ -3441,10 +3463,10 @@
         <v>105</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>44.56278818623853</v>
       </c>
       <c r="C22" t="n">
-        <v>0.07554543495178223</v>
+        <v>8.830218439102174</v>
       </c>
     </row>
     <row r="23">
@@ -3452,10 +3474,10 @@
         <v>110</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>42.54353045992726</v>
       </c>
       <c r="C23" t="n">
-        <v>0.06855428695678711</v>
+        <v>8.828348760604859</v>
       </c>
     </row>
     <row r="24">
@@ -3463,10 +3485,10 @@
         <v>115</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>44.33509694866714</v>
       </c>
       <c r="C24" t="n">
-        <v>0.07140744209289551</v>
+        <v>8.854157571792603</v>
       </c>
     </row>
     <row r="25">
@@ -3474,10 +3496,10 @@
         <v>120</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>42.49153832209127</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0690406608581543</v>
+        <v>1.239604597091675</v>
       </c>
     </row>
     <row r="26">
@@ -3485,10 +3507,10 @@
         <v>125</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>44.32933074230908</v>
       </c>
       <c r="C26" t="n">
-        <v>0.06938851356506348</v>
+        <v>8.826465969085694</v>
       </c>
     </row>
     <row r="27">
@@ -3496,10 +3518,10 @@
         <v>130</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>43.76011190520919</v>
       </c>
       <c r="C27" t="n">
-        <v>0.07166064262390137</v>
+        <v>8.826125268936158</v>
       </c>
     </row>
     <row r="28">
@@ -3507,10 +3529,10 @@
         <v>135</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>42.13632585297698</v>
       </c>
       <c r="C28" t="n">
-        <v>0.07072818756103516</v>
+        <v>8.910664920806886</v>
       </c>
     </row>
     <row r="29">
@@ -3518,10 +3540,10 @@
         <v>140</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>43.67875599985256</v>
       </c>
       <c r="C29" t="n">
-        <v>0.06930196762084961</v>
+        <v>3.623317127227783</v>
       </c>
     </row>
     <row r="30">
@@ -3529,10 +3551,10 @@
         <v>145</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>45.06158345053417</v>
       </c>
       <c r="C30" t="n">
-        <v>0.06899941444396973</v>
+        <v>7.481539134979248</v>
       </c>
     </row>
     <row r="31">
@@ -3540,10 +3562,10 @@
         <v>150</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>43.55525153769523</v>
       </c>
       <c r="C31" t="n">
-        <v>0.06899846076965332</v>
+        <v>8.825451736450196</v>
       </c>
     </row>
     <row r="32">
@@ -3551,10 +3573,10 @@
         <v>155</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>45.0767891297256</v>
       </c>
       <c r="C32" t="n">
-        <v>0.06900489807128907</v>
+        <v>7.524187211990356</v>
       </c>
     </row>
     <row r="33">
@@ -3562,10 +3584,10 @@
         <v>160</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>43.67403210479023</v>
       </c>
       <c r="C33" t="n">
-        <v>0.09499800682067872</v>
+        <v>8.842241649627686</v>
       </c>
     </row>
     <row r="34">
@@ -3573,10 +3595,10 @@
         <v>165</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>44.79781434145912</v>
       </c>
       <c r="C34" t="n">
-        <v>0.06900179862976075</v>
+        <v>8.825591688156129</v>
       </c>
     </row>
     <row r="35">
@@ -3584,10 +3606,10 @@
         <v>170</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>43.4820266998647</v>
       </c>
       <c r="C35" t="n">
-        <v>0.06799877166748047</v>
+        <v>3.677416925430298</v>
       </c>
     </row>
     <row r="36">
@@ -3595,10 +3617,10 @@
         <v>175</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>44.71783716597791</v>
       </c>
       <c r="C36" t="n">
-        <v>0.06919491767883301</v>
+        <v>8.82620966911316</v>
       </c>
     </row>
     <row r="37">
@@ -3606,10 +3628,10 @@
         <v>180</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>43.47828967831347</v>
       </c>
       <c r="C37" t="n">
-        <v>0.06971633911132813</v>
+        <v>6.620051507949829</v>
       </c>
     </row>
     <row r="38">
@@ -3617,10 +3639,10 @@
         <v>185</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>44.5811442894695</v>
       </c>
       <c r="C38" t="n">
-        <v>0.07029712677001954</v>
+        <v>8.908481960296632</v>
       </c>
     </row>
     <row r="39">
@@ -3628,10 +3650,10 @@
         <v>190</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>43.40864891826141</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0699399757385254</v>
+        <v>2.934705142974853</v>
       </c>
     </row>
     <row r="40">
@@ -3639,10 +3661,10 @@
         <v>195</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>44.37617898474478</v>
       </c>
       <c r="C40" t="n">
-        <v>0.06834853172302247</v>
+        <v>8.824880723953248</v>
       </c>
     </row>
     <row r="41">
@@ -3650,10 +3672,10 @@
         <v>200</v>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>43.26308766152776</v>
       </c>
       <c r="C41" t="n">
-        <v>0.07075608253479004</v>
+        <v>8.860388164520264</v>
       </c>
     </row>
     <row r="42">
@@ -3661,219 +3683,10 @@
         <v>205</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>44.88860978994843</v>
       </c>
       <c r="C42" t="n">
-        <v>0.07161701202392579</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>210</v>
-      </c>
-      <c r="B43" t="n">
-        <v>0</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.07000005722045899</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>215</v>
-      </c>
-      <c r="B44" t="n">
-        <v>0</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.07100379943847657</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>220</v>
-      </c>
-      <c r="B45" t="n">
-        <v>0</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.07641590118408204</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>225</v>
-      </c>
-      <c r="B46" t="n">
-        <v>0</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.06818736076354981</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>230</v>
-      </c>
-      <c r="B47" t="n">
-        <v>0</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0.06993377685546875</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>235</v>
-      </c>
-      <c r="B48" t="n">
-        <v>0</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.06924880027770997</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>240</v>
-      </c>
-      <c r="B49" t="n">
-        <v>0</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.06943548202514649</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>245</v>
-      </c>
-      <c r="B50" t="n">
-        <v>0</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.07112896919250489</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>250</v>
-      </c>
-      <c r="B51" t="n">
-        <v>0</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.07021725654602051</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>255</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.07054293632507325</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>260</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0.0710238265991211</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>265</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0.06793344497680665</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>270</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0.0675443458557129</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>275</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0.06992018699645997</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>280</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0.07120001792907715</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>285</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0.07003939628601075</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>290</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0</v>
-      </c>
-      <c r="C59" t="n">
-        <v>0.07242405891418457</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>295</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0.0680643367767334</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>300</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0.0751291561126709</v>
+        <v>3.531760339736938</v>
       </c>
     </row>
   </sheetData>
